--- a/mko/mko_export_reaction2.xlsx
+++ b/mko/mko_export_reaction2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vickenlee\Documents\GitHub\BuildGEM\mko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F3978-BF83-4660-B9DE-FC19003E4D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245EAEB-5787-4C2E-ACAB-C895E4F97510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15255" yWindow="-105" windowWidth="19395" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5584,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13017,7 +13017,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D530">
+  <sortState ref="A2:D530">
     <sortCondition ref="D2:D530"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
